--- a/data/production/5/ERP Data/Yarn_Demand_2025-09-02_0442.xlsx
+++ b/data/production/5/ERP Data/Yarn_Demand_2025-09-02_0442.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\finalee\beverly_knits_erp_v2\data\production\5\ERP Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6414F74D-8762-4657-9464-2C68FCB7EFA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0544C89-E44E-4509-9542-377C2E7EC1ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-4020" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2000" yWindow="1590" windowWidth="25760" windowHeight="10480" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Yarn Demand Report" sheetId="1" r:id="rId1"/>
@@ -5813,11 +5813,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="E170" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="H173" sqref="H173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -30220,7 +30220,7 @@
         <v>8632</v>
       </c>
       <c r="H173" s="12">
-        <f t="shared" si="61"/>
+        <f>+E173-F173+G173</f>
         <v>20175.157999999996</v>
       </c>
       <c r="I173" s="12">
@@ -32359,7 +32359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220BC573-7715-4C8A-8E90-32B53B1BB78D}">
   <dimension ref="A1:Q1200"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1165" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
